--- a/data/trans_orig/Q5408-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBCE1C19-8866-4C9C-8DBD-EFD5D7A4B40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88B65EA-8CD4-4A93-A6BC-1F69512BDDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59942292-7C61-4259-928E-891039AA231E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D0B0E5E-9BBA-46B2-9ECB-27E776A9A3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -104,16 +104,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -122,310 +122,310 @@
     <t>0,27%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>3,47%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
     <t>7,69%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97447D5-652D-4AB8-8C57-33FF0EF23E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2589442-0928-4B19-BB11-AAB95038A15C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52F2636-0D22-4B60-ADDC-DB24F3C1CD19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE2A488-EC33-4393-B3C9-CC53E34B5B24}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3749,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F156CA-1674-46E5-8EFE-7E2C14B1E98B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7877AA20-BA4A-4581-B6C3-4320E10F6ECD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4813,13 +4813,13 @@
         <v>18860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4834,13 @@
         <v>23524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -4849,13 +4849,13 @@
         <v>34948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -4864,13 +4864,13 @@
         <v>58472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4885,13 @@
         <v>562328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>617</v>
@@ -4900,13 +4900,13 @@
         <v>729599</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1211</v>
@@ -4915,13 +4915,13 @@
         <v>1291927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5019,13 @@
         <v>18860</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5040,13 @@
         <v>23524</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -5055,13 +5055,13 @@
         <v>34948</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -5070,13 +5070,13 @@
         <v>58472</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5091,13 @@
         <v>562328</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>617</v>
@@ -5106,13 +5106,13 @@
         <v>729599</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1211</v>
@@ -5121,13 +5121,13 @@
         <v>1291927</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,7 +5205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B216D09-65FB-4BAC-9E1A-F0691AD37966}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A122182E-84DD-42AE-9E49-70BE1CB1BD47}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,7 +5222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6239,13 +6239,13 @@
         <v>5702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -6254,13 +6254,13 @@
         <v>17962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -6269,13 +6269,13 @@
         <v>23664</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6290,13 @@
         <v>21091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -6305,10 +6305,10 @@
         <v>63569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>116</v>
@@ -6445,13 +6445,13 @@
         <v>5702</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -6460,13 +6460,13 @@
         <v>17962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -6475,13 +6475,13 @@
         <v>23664</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6496,13 @@
         <v>21091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>114</v>
@@ -6511,10 +6511,10 @@
         <v>63569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>116</v>

--- a/data/trans_orig/Q5408-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88B65EA-8CD4-4A93-A6BC-1F69512BDDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09803A6-D8AB-4420-A038-747AD83AD04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D0B0E5E-9BBA-46B2-9ECB-27E776A9A3A8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C290A5A0-2D95-471D-9E89-2EC633EEDB49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="126">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,16 +104,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>1,13%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -122,61 +122,61 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,192 +194,186 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,57%</t>
+    <t>3,48%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>6,75%</t>
+    <t>6,82%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>88,77%</t>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>2,23%</t>
   </si>
   <si>
@@ -399,9 +393,6 @@
   </si>
   <si>
     <t>5,85%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
   </si>
   <si>
     <t>94,71%</t>
@@ -837,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2589442-0928-4B19-BB11-AAB95038A15C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886D7B7B-8DC6-481A-88B5-4363B0E866CC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE2A488-EC33-4393-B3C9-CC53E34B5B24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2D936E-74D6-47BB-970B-3FA4E1269824}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3465,7 +3456,7 @@
         <v>73</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3662,7 @@
         <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7877AA20-BA4A-4581-B6C3-4320E10F6ECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC7678-CE9B-42DD-A761-324B6023B7E2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3766,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4783,13 +4774,13 @@
         <v>5477</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4798,13 +4789,13 @@
         <v>13383</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4813,13 +4804,13 @@
         <v>18860</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4825,13 @@
         <v>23524</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -4849,13 +4840,13 @@
         <v>34948</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -4864,13 +4855,13 @@
         <v>58472</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4876,13 @@
         <v>562328</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>617</v>
@@ -4900,13 +4891,13 @@
         <v>729599</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1211</v>
@@ -4915,13 +4906,13 @@
         <v>1291927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4980,13 @@
         <v>5477</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -5004,13 +4995,13 @@
         <v>13383</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -5019,13 +5010,13 @@
         <v>18860</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5031,13 @@
         <v>23524</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -5055,13 +5046,13 @@
         <v>34948</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -5070,13 +5061,13 @@
         <v>58472</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5082,13 @@
         <v>562328</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>617</v>
@@ -5106,13 +5097,13 @@
         <v>729599</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1211</v>
@@ -5121,13 +5112,13 @@
         <v>1291927</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A122182E-84DD-42AE-9E49-70BE1CB1BD47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A2C19-C87E-4DDF-BBA0-4BDA8CFF8C20}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,7 +5213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6239,13 +6230,13 @@
         <v>5702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -6254,13 +6245,13 @@
         <v>17962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -6269,13 +6260,13 @@
         <v>23664</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6281,13 @@
         <v>21091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -6305,13 +6296,13 @@
         <v>63569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -6320,13 +6311,13 @@
         <v>84659</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,13 +6332,13 @@
         <v>670129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>1559</v>
@@ -6356,13 +6347,13 @@
         <v>944044</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>2542</v>
@@ -6371,13 +6362,13 @@
         <v>1614173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6436,13 @@
         <v>5702</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -6460,13 +6451,13 @@
         <v>17962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -6475,13 +6466,13 @@
         <v>23664</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6487,13 @@
         <v>21091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>114</v>
@@ -6511,13 +6502,13 @@
         <v>63569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M29" s="7">
         <v>148</v>
@@ -6526,13 +6517,13 @@
         <v>84659</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6538,13 @@
         <v>670129</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7">
         <v>1559</v>
@@ -6562,13 +6553,13 @@
         <v>944044</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>2542</v>
@@ -6577,13 +6568,13 @@
         <v>1614173</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5408-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09803A6-D8AB-4420-A038-747AD83AD04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA997EB3-16AF-4F69-938B-8A33D4BB54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C290A5A0-2D95-471D-9E89-2EC633EEDB49}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4071C31B-8B94-4E3F-95DF-3E14C2C380F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,16 +104,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -122,22 +122,22 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>6,65%</t>
@@ -146,277 +146,286 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
 </sst>
 </file>
@@ -828,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886D7B7B-8DC6-481A-88B5-4363B0E866CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07679BDA-5D9E-4F50-9691-50EAE0E65DBA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2284,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2D936E-74D6-47BB-970B-3FA4E1269824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99C7121-C0C1-40A2-AF5B-BF1CD41C411B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3465,7 @@
         <v>73</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3671,7 @@
         <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC7678-CE9B-42DD-A761-324B6023B7E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73D76DE-AAF0-4A3C-90D7-B10F9A7003C1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3757,7 +3766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,13 +4783,13 @@
         <v>5477</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4789,13 +4798,13 @@
         <v>13383</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4804,10 +4813,10 @@
         <v>18860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>82</v>
@@ -4906,13 +4915,13 @@
         <v>1291927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4989,13 @@
         <v>5477</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -4995,13 +5004,13 @@
         <v>13383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -5010,10 +5019,10 @@
         <v>18860</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>82</v>
@@ -5112,13 +5121,13 @@
         <v>1291927</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A2C19-C87E-4DDF-BBA0-4BDA8CFF8C20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92762925-55FE-46E1-B794-358101E76B3A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5213,7 +5222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6230,13 +6239,13 @@
         <v>5702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -6245,13 +6254,13 @@
         <v>17962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -6260,13 +6269,13 @@
         <v>23664</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6290,13 @@
         <v>21091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -6296,13 +6305,13 @@
         <v>63569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -6311,13 +6320,13 @@
         <v>84659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6341,13 @@
         <v>670129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>1559</v>
@@ -6347,13 +6356,13 @@
         <v>944044</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>2542</v>
@@ -6362,13 +6371,13 @@
         <v>1614173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6445,13 @@
         <v>5702</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -6451,13 +6460,13 @@
         <v>17962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -6466,13 +6475,13 @@
         <v>23664</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6496,13 @@
         <v>21091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>114</v>
@@ -6502,13 +6511,13 @@
         <v>63569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>148</v>
@@ -6517,13 +6526,13 @@
         <v>84659</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6547,13 @@
         <v>670129</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>1559</v>
@@ -6553,13 +6562,13 @@
         <v>944044</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>2542</v>
@@ -6568,13 +6577,13 @@
         <v>1614173</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5408-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA997EB3-16AF-4F69-938B-8A33D4BB54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECB17C7-6203-4FDF-AF1B-FFB6E684A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4071C31B-8B94-4E3F-95DF-3E14C2C380F2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CA09BFFE-5CA0-4404-89D1-938A6F2F9041}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="315">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No puede</t>
@@ -83,33 +83,183 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
@@ -119,9 +269,6 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>1,38%</t>
   </si>
   <si>
@@ -179,18 +326,174 @@
     <t>96,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>1,87%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
@@ -218,9 +521,6 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
     <t>6,21%</t>
   </si>
   <si>
@@ -269,6 +569,132 @@
     <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
@@ -320,15 +746,9 @@
     <t>95,1%</t>
   </si>
   <si>
-    <t>93,21%</t>
-  </si>
-  <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
     <t>91,66%</t>
   </si>
   <si>
@@ -347,85 +767,223 @@
     <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
 </sst>
 </file>
@@ -837,8 +1395,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07679BDA-5D9E-4F50-9691-50EAE0E65DBA}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE80F50-F6EF-469B-9F25-F2834CD02C7B}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1865,10 +2423,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>1669</v>
+        <v>838</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1880,34 +2438,34 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>5683</v>
+        <v>897</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1735</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="7">
-        <v>8</v>
-      </c>
-      <c r="N24" s="7">
-        <v>7352</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,49 +2474,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>17441</v>
+        <v>4555</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>6</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5728</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="7">
-        <v>28</v>
-      </c>
-      <c r="I25" s="7">
-        <v>31725</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>11</v>
+      </c>
+      <c r="N25" s="7">
+        <v>10283</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="7">
-        <v>47</v>
-      </c>
-      <c r="N25" s="7">
-        <v>49165</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,49 +2525,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>502</v>
+        <v>297</v>
       </c>
       <c r="D26" s="7">
-        <v>483356</v>
+        <v>287189</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>364</v>
+      </c>
+      <c r="I26" s="7">
+        <v>336310</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="7">
-        <v>627</v>
-      </c>
-      <c r="I26" s="7">
-        <v>639434</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>661</v>
+      </c>
+      <c r="N26" s="7">
+        <v>623499</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="7">
-        <v>1129</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1122790</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,102 +2576,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1669</v>
+        <v>831</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H28" s="7">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4787</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="7">
         <v>6</v>
       </c>
-      <c r="I28" s="7">
-        <v>5683</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="7">
-        <v>8</v>
-      </c>
       <c r="N28" s="7">
-        <v>7352</v>
+        <v>5617</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,49 +2680,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>17441</v>
+        <v>12886</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I29" s="7">
-        <v>31725</v>
+        <v>25997</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N29" s="7">
-        <v>49165</v>
+        <v>38882</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,49 +2731,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>502</v>
+        <v>205</v>
       </c>
       <c r="D30" s="7">
-        <v>483356</v>
+        <v>196167</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H30" s="7">
-        <v>627</v>
+        <v>263</v>
       </c>
       <c r="I30" s="7">
-        <v>639434</v>
+        <v>303125</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="M30" s="7">
-        <v>1129</v>
+        <v>468</v>
       </c>
       <c r="N30" s="7">
-        <v>1122790</v>
+        <v>499291</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,63 +2782,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1669</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5683</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8</v>
+      </c>
+      <c r="N32" s="7">
+        <v>7352</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7">
+        <v>17441</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="7">
+        <v>28</v>
+      </c>
+      <c r="I33" s="7">
+        <v>31725</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" s="7">
+        <v>47</v>
+      </c>
+      <c r="N33" s="7">
+        <v>49165</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>502</v>
+      </c>
+      <c r="D34" s="7">
+        <v>483356</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="7">
+        <v>627</v>
+      </c>
+      <c r="I34" s="7">
+        <v>639434</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1129</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1122790</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2293,8 +3058,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99C7121-C0C1-40A2-AF5B-BF1CD41C411B}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE52FD73-FE9E-46FA-9934-E34AFBF1B505}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2310,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3321,49 +4086,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>10470</v>
+        <v>3982</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>19355</v>
+        <v>4002</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>29824</v>
+        <v>7984</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,49 +4137,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>26223</v>
+        <v>7231</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="H25" s="7">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>46111</v>
+        <v>6628</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="N25" s="7">
-        <v>72334</v>
+        <v>13858</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,49 +4188,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>471</v>
+        <v>271</v>
       </c>
       <c r="D26" s="7">
-        <v>522945</v>
+        <v>298574</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="H26" s="7">
-        <v>635</v>
+        <v>334</v>
       </c>
       <c r="I26" s="7">
-        <v>677509</v>
+        <v>343366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="M26" s="7">
-        <v>1106</v>
+        <v>605</v>
       </c>
       <c r="N26" s="7">
-        <v>1200454</v>
+        <v>641940</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,102 +4239,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>10470</v>
+        <v>6488</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="H28" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I28" s="7">
-        <v>19355</v>
+        <v>15353</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N28" s="7">
-        <v>29824</v>
+        <v>21841</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,49 +4343,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7">
-        <v>26223</v>
+        <v>18992</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I29" s="7">
-        <v>46111</v>
+        <v>39484</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="M29" s="7">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="N29" s="7">
-        <v>72334</v>
+        <v>58476</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,49 +4394,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="D30" s="7">
-        <v>522945</v>
+        <v>224371</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7">
-        <v>635</v>
+        <v>301</v>
       </c>
       <c r="I30" s="7">
-        <v>677509</v>
+        <v>334143</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="M30" s="7">
-        <v>1106</v>
+        <v>501</v>
       </c>
       <c r="N30" s="7">
-        <v>1200454</v>
+        <v>558514</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,63 +4445,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10470</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32" s="7">
+        <v>17</v>
+      </c>
+      <c r="I32" s="7">
+        <v>19355</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M32" s="7">
+        <v>26</v>
+      </c>
+      <c r="N32" s="7">
+        <v>29824</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>24</v>
+      </c>
+      <c r="D33" s="7">
+        <v>26223</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="7">
+        <v>42</v>
+      </c>
+      <c r="I33" s="7">
+        <v>46111</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M33" s="7">
+        <v>66</v>
+      </c>
+      <c r="N33" s="7">
+        <v>72334</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>471</v>
+      </c>
+      <c r="D34" s="7">
+        <v>522945</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="7">
+        <v>635</v>
+      </c>
+      <c r="I34" s="7">
+        <v>677509</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1106</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1200454</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3749,8 +4721,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73D76DE-AAF0-4A3C-90D7-B10F9A7003C1}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8AF319-56EB-4FF2-9C94-56ED2C33A399}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3766,7 +4738,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4777,49 +5749,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>5477</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>13383</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="M24" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>18860</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,49 +5800,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>23524</v>
+        <v>3941</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>34948</v>
+        <v>2947</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>58472</v>
+        <v>6888</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,49 +5851,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>594</v>
+        <v>321</v>
       </c>
       <c r="D26" s="7">
-        <v>562328</v>
+        <v>330389</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
-        <v>617</v>
+        <v>351</v>
       </c>
       <c r="I26" s="7">
-        <v>729599</v>
+        <v>374815</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
-        <v>1211</v>
+        <v>672</v>
       </c>
       <c r="N26" s="7">
-        <v>1291927</v>
+        <v>705204</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,54 +5902,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4989,13 +5961,13 @@
         <v>5477</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -5004,13 +5976,13 @@
         <v>13383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -5019,13 +5991,13 @@
         <v>18860</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,49 +6006,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D29" s="7">
-        <v>23524</v>
+        <v>19583</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I29" s="7">
-        <v>34948</v>
+        <v>32001</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N29" s="7">
-        <v>58472</v>
+        <v>51584</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,49 +6057,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>594</v>
+        <v>273</v>
       </c>
       <c r="D30" s="7">
-        <v>562328</v>
+        <v>231939</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
-        <v>617</v>
+        <v>266</v>
       </c>
       <c r="I30" s="7">
-        <v>729599</v>
+        <v>354785</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
-        <v>1211</v>
+        <v>539</v>
       </c>
       <c r="N30" s="7">
-        <v>1291927</v>
+        <v>586723</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,63 +6108,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5477</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="7">
+        <v>10</v>
+      </c>
+      <c r="I32" s="7">
+        <v>13383</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" s="7">
+        <v>16</v>
+      </c>
+      <c r="N32" s="7">
+        <v>18860</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>27</v>
+      </c>
+      <c r="D33" s="7">
+        <v>23524</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" s="7">
+        <v>28</v>
+      </c>
+      <c r="I33" s="7">
+        <v>34948</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" s="7">
+        <v>55</v>
+      </c>
+      <c r="N33" s="7">
+        <v>58472</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>594</v>
+      </c>
+      <c r="D34" s="7">
+        <v>562328</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="7">
+        <v>617</v>
+      </c>
+      <c r="I34" s="7">
+        <v>729599</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1211</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1291927</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5205,8 +6384,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92762925-55FE-46E1-B794-358101E76B3A}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DF8B7C-50D2-45CF-9832-EA81243286C7}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5222,7 +6401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6233,49 +7412,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>5702</v>
+        <v>1264</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1016</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="7">
-        <v>33</v>
-      </c>
-      <c r="I24" s="7">
-        <v>17962</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="M24" s="7">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>23664</v>
+        <v>2280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,49 +7463,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>21091</v>
+        <v>4311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="H25" s="7">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>63569</v>
+        <v>10079</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="M25" s="7">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="N25" s="7">
-        <v>84659</v>
+        <v>14390</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,49 +7514,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>983</v>
+        <v>561</v>
       </c>
       <c r="D26" s="7">
-        <v>670129</v>
+        <v>362590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="H26" s="7">
-        <v>1559</v>
+        <v>804</v>
       </c>
       <c r="I26" s="7">
-        <v>944044</v>
+        <v>596285</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
-        <v>2542</v>
+        <v>1365</v>
       </c>
       <c r="N26" s="7">
-        <v>1614173</v>
+        <v>958874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,102 +7565,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>696921</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
-        <v>1706</v>
+        <v>825</v>
       </c>
       <c r="I27" s="7">
-        <v>1025575</v>
+        <v>607380</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
-        <v>2733</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>1722496</v>
+        <v>975545</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="7">
-        <v>5702</v>
+        <v>4065</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="H28" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I28" s="7">
-        <v>17962</v>
+        <v>15114</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="M28" s="7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N28" s="7">
-        <v>23664</v>
+        <v>19179</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,49 +7669,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D29" s="7">
-        <v>21091</v>
+        <v>15268</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>274</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>275</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I29" s="7">
-        <v>63569</v>
+        <v>46299</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="M29" s="7">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="N29" s="7">
-        <v>84659</v>
+        <v>61567</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,49 +7720,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>983</v>
+        <v>422</v>
       </c>
       <c r="D30" s="7">
-        <v>670129</v>
+        <v>262679</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="H30" s="7">
-        <v>1559</v>
+        <v>755</v>
       </c>
       <c r="I30" s="7">
-        <v>944044</v>
+        <v>364419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="M30" s="7">
-        <v>2542</v>
+        <v>1177</v>
       </c>
       <c r="N30" s="7">
-        <v>1614173</v>
+        <v>627098</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,63 +7771,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707844</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5329</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="7">
+        <v>33</v>
+      </c>
+      <c r="I32" s="7">
+        <v>16130</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" s="7">
+        <v>43</v>
+      </c>
+      <c r="N32" s="7">
+        <v>21459</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>34</v>
+      </c>
+      <c r="D33" s="7">
+        <v>19580</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" s="7">
+        <v>114</v>
+      </c>
+      <c r="I33" s="7">
+        <v>56378</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" s="7">
+        <v>148</v>
+      </c>
+      <c r="N33" s="7">
+        <v>75958</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>983</v>
+      </c>
+      <c r="D34" s="7">
+        <v>625269</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1559</v>
+      </c>
+      <c r="I34" s="7">
+        <v>960703</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2542</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1585972</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1027</v>
       </c>
-      <c r="D31" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>650178</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="7">
         <v>1706</v>
       </c>
-      <c r="I31" s="7">
-        <v>1025575</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1033211</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="7">
         <v>2733</v>
       </c>
-      <c r="N31" s="7">
-        <v>1722496</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1683389</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
